--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cdgonzalez\Desktop\Publicaciones Regionales\Bases Publicadas en 2021\Base 20210707\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Estadísticas Regionales\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5020ABCF-2499-4C89-89C8-6C33D5507804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Hoja1" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Descriptor de variables'!$A$4:$G$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Descriptor de variables'!$A$1:$G$173</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="585">
   <si>
     <t>Definición</t>
   </si>
@@ -1880,9 +1881,6 @@
     <t>Notas técnicas desagregación Biobío - Ñuble</t>
   </si>
   <si>
-    <t>DESCRIPTOR DE CAMPOS BASE DE DATOS ESTADÍSTICAS REGIONALES</t>
-  </si>
-  <si>
     <t>Total de exportaciones medidas en valor FOB ("Free on board"), es decir,  cuando están embarcadas y listas para salir hacia su destino, expresado en millones de dólares estadounidenses</t>
   </si>
   <si>
@@ -2079,7 +2077,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2574,52 +2572,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G176"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="71.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="71.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B1" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2627,22 +2691,22 @@
         <v>168</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>453</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>221</v>
+        <v>486</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>526</v>
+        <v>225</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -2650,22 +2714,22 @@
         <v>168</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>129</v>
+        <v>454</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>451</v>
+        <v>171</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>221</v>
+        <v>495</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -2673,22 +2737,22 @@
         <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>455</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>452</v>
+        <v>169</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>221</v>
+        <v>495</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2696,91 +2760,91 @@
         <v>168</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>454</v>
+        <v>314</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>495</v>
+        <v>221</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>455</v>
+        <v>320</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>495</v>
+        <v>221</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>456</v>
+        <v>321</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>495</v>
+        <v>221</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -2788,10 +2852,10 @@
         <v>124</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>221</v>
@@ -2800,10 +2864,10 @@
         <v>233</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -2811,10 +2875,10 @@
         <v>124</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>221</v>
@@ -2823,10 +2887,10 @@
         <v>233</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -2834,10 +2898,10 @@
         <v>124</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>221</v>
@@ -2846,10 +2910,10 @@
         <v>233</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -2857,10 +2921,10 @@
         <v>124</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>221</v>
@@ -2869,10 +2933,10 @@
         <v>233</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -2880,10 +2944,10 @@
         <v>124</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>221</v>
@@ -2892,10 +2956,10 @@
         <v>233</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -2903,10 +2967,10 @@
         <v>124</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>221</v>
@@ -2915,10 +2979,10 @@
         <v>233</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -2926,10 +2990,10 @@
         <v>124</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>221</v>
@@ -2938,10 +3002,10 @@
         <v>233</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -2949,10 +3013,10 @@
         <v>124</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>221</v>
@@ -2961,10 +3025,10 @@
         <v>233</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -2972,10 +3036,10 @@
         <v>124</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>221</v>
@@ -2984,10 +3048,10 @@
         <v>233</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -2995,10 +3059,10 @@
         <v>124</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>221</v>
@@ -3007,10 +3071,10 @@
         <v>233</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -3018,10 +3082,10 @@
         <v>124</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>221</v>
@@ -3030,10 +3094,10 @@
         <v>233</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -3041,10 +3105,10 @@
         <v>124</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>221</v>
@@ -3053,10 +3117,10 @@
         <v>233</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -3064,10 +3128,10 @@
         <v>124</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>221</v>
@@ -3076,10 +3140,10 @@
         <v>233</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -3087,10 +3151,10 @@
         <v>124</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>221</v>
@@ -3099,10 +3163,10 @@
         <v>233</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -3110,10 +3174,10 @@
         <v>124</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>221</v>
@@ -3122,10 +3186,10 @@
         <v>233</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -3133,10 +3197,10 @@
         <v>124</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>221</v>
@@ -3145,10 +3209,10 @@
         <v>233</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -3156,10 +3220,10 @@
         <v>124</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>221</v>
@@ -3168,10 +3232,10 @@
         <v>233</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -3179,10 +3243,10 @@
         <v>124</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>221</v>
@@ -3191,10 +3255,10 @@
         <v>233</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -3202,10 +3266,10 @@
         <v>124</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>221</v>
@@ -3214,10 +3278,10 @@
         <v>233</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -3225,10 +3289,10 @@
         <v>124</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>221</v>
@@ -3237,10 +3301,10 @@
         <v>233</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -3248,10 +3312,10 @@
         <v>124</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>221</v>
@@ -3260,10 +3324,10 @@
         <v>233</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -3271,10 +3335,10 @@
         <v>124</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>221</v>
@@ -3283,10 +3347,10 @@
         <v>233</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -3294,10 +3358,10 @@
         <v>124</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>221</v>
@@ -3306,10 +3370,10 @@
         <v>233</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -3317,10 +3381,10 @@
         <v>124</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>221</v>
@@ -3329,10 +3393,10 @@
         <v>233</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -3340,10 +3404,10 @@
         <v>124</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>221</v>
@@ -3352,10 +3416,10 @@
         <v>233</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -3363,10 +3427,10 @@
         <v>124</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>221</v>
@@ -3375,10 +3439,10 @@
         <v>233</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -3386,10 +3450,10 @@
         <v>124</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>221</v>
@@ -3398,10 +3462,10 @@
         <v>233</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -3409,10 +3473,10 @@
         <v>124</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>221</v>
@@ -3421,10 +3485,10 @@
         <v>233</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -3432,10 +3496,10 @@
         <v>124</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>126</v>
+        <v>374</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>221</v>
@@ -3444,10 +3508,10 @@
         <v>233</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -3455,10 +3519,10 @@
         <v>124</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>221</v>
@@ -3467,10 +3531,10 @@
         <v>233</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -3478,10 +3542,10 @@
         <v>124</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>221</v>
@@ -3490,10 +3554,10 @@
         <v>233</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -3501,10 +3565,10 @@
         <v>124</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>374</v>
+        <v>109</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>221</v>
@@ -3513,10 +3577,10 @@
         <v>233</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -3524,10 +3588,10 @@
         <v>124</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>221</v>
@@ -3536,10 +3600,10 @@
         <v>233</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -3547,10 +3611,10 @@
         <v>124</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>221</v>
@@ -3559,10 +3623,10 @@
         <v>233</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -3570,10 +3634,10 @@
         <v>124</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>221</v>
@@ -3582,10 +3646,10 @@
         <v>233</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -3593,10 +3657,10 @@
         <v>124</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>221</v>
@@ -3605,10 +3669,10 @@
         <v>233</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -3616,10 +3680,10 @@
         <v>124</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>221</v>
@@ -3628,10 +3692,10 @@
         <v>233</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -3639,10 +3703,10 @@
         <v>124</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>221</v>
@@ -3651,10 +3715,10 @@
         <v>233</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -3662,10 +3726,10 @@
         <v>124</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>221</v>
@@ -3674,10 +3738,10 @@
         <v>233</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -3685,10 +3749,10 @@
         <v>124</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>221</v>
@@ -3697,10 +3761,10 @@
         <v>233</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -3708,10 +3772,10 @@
         <v>124</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>221</v>
@@ -3720,10 +3784,10 @@
         <v>233</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -3731,10 +3795,10 @@
         <v>124</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>117</v>
+        <v>375</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>221</v>
@@ -3743,10 +3807,10 @@
         <v>233</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -3754,10 +3818,10 @@
         <v>124</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>221</v>
@@ -3766,10 +3830,10 @@
         <v>233</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -3777,10 +3841,10 @@
         <v>124</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>221</v>
@@ -3789,10 +3853,10 @@
         <v>233</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -3800,10 +3864,10 @@
         <v>124</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>221</v>
@@ -3812,10 +3876,10 @@
         <v>233</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -3823,10 +3887,10 @@
         <v>124</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>130</v>
+        <v>377</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>221</v>
@@ -3835,10 +3899,10 @@
         <v>233</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>2</v>
       </c>
@@ -3846,10 +3910,10 @@
         <v>124</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>221</v>
@@ -3858,10 +3922,10 @@
         <v>233</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>2</v>
       </c>
@@ -3869,10 +3933,10 @@
         <v>124</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>376</v>
+        <v>119</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>221</v>
@@ -3881,10 +3945,10 @@
         <v>233</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -3892,10 +3956,10 @@
         <v>124</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>377</v>
+        <v>120</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>221</v>
@@ -3904,10 +3968,10 @@
         <v>233</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -3915,10 +3979,10 @@
         <v>124</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>221</v>
@@ -3927,10 +3991,10 @@
         <v>233</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>2</v>
       </c>
@@ -3938,10 +4002,10 @@
         <v>124</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>221</v>
@@ -3950,10 +4014,10 @@
         <v>233</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -3961,10 +4025,10 @@
         <v>124</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>221</v>
@@ -3973,10 +4037,10 @@
         <v>233</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -3984,10 +4048,10 @@
         <v>124</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>121</v>
+        <v>378</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>221</v>
@@ -3996,10 +4060,10 @@
         <v>233</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>2</v>
       </c>
@@ -4007,10 +4071,10 @@
         <v>124</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>221</v>
@@ -4019,10 +4083,10 @@
         <v>233</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -4030,10 +4094,10 @@
         <v>124</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>221</v>
@@ -4042,10 +4106,10 @@
         <v>233</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>2</v>
       </c>
@@ -4053,10 +4117,10 @@
         <v>124</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>221</v>
@@ -4065,10 +4129,10 @@
         <v>233</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -4076,10 +4140,10 @@
         <v>124</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>132</v>
+        <v>380</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>221</v>
@@ -4088,79 +4152,79 @@
         <v>233</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>366</v>
+        <v>72</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>221</v>
+        <v>487</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>367</v>
+        <v>496</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>379</v>
+        <v>498</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>221</v>
+        <v>487</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>368</v>
+        <v>497</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>380</v>
+        <v>499</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>221</v>
+        <v>487</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>3</v>
       </c>
@@ -4168,22 +4232,22 @@
         <v>4</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>72</v>
+        <v>297</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>487</v>
+        <v>219</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>3</v>
       </c>
@@ -4191,22 +4255,22 @@
         <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>496</v>
+        <v>298</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>498</v>
+        <v>37</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>487</v>
+        <v>220</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G73" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>3</v>
       </c>
@@ -4214,22 +4278,22 @@
         <v>4</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>497</v>
+        <v>299</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>499</v>
+        <v>38</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>487</v>
+        <v>220</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G74" s="7" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G74" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>3</v>
       </c>
@@ -4237,10 +4301,10 @@
         <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>219</v>
@@ -4249,10 +4313,10 @@
         <v>225</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>3</v>
       </c>
@@ -4260,22 +4324,22 @@
         <v>4</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G76" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>3</v>
       </c>
@@ -4283,22 +4347,22 @@
         <v>4</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -4306,79 +4370,79 @@
         <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G78" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
         <v>4</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>3</v>
-      </c>
       <c r="B80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
         <v>4</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>3</v>
-      </c>
       <c r="B81" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>42</v>
+        <v>521</v>
+      </c>
+      <c r="D81" t="s">
+        <v>556</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>221</v>
@@ -4386,11 +4450,11 @@
       <c r="F81" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G81" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>4</v>
       </c>
@@ -4398,22 +4462,22 @@
         <v>43</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>73</v>
+        <v>274</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>4</v>
       </c>
@@ -4421,22 +4485,22 @@
         <v>43</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>4</v>
       </c>
@@ -4444,22 +4508,22 @@
         <v>43</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D84" t="s">
-        <v>557</v>
+        <v>276</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>221</v>
+        <v>494</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>4</v>
       </c>
@@ -4467,22 +4531,22 @@
         <v>43</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>4</v>
       </c>
@@ -4490,22 +4554,22 @@
         <v>43</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>4</v>
       </c>
@@ -4513,10 +4577,10 @@
         <v>43</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>494</v>
@@ -4525,10 +4589,10 @@
         <v>225</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>4</v>
       </c>
@@ -4536,10 +4600,10 @@
         <v>43</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>494</v>
@@ -4548,10 +4612,10 @@
         <v>225</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>4</v>
       </c>
@@ -4559,22 +4623,22 @@
         <v>43</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>4</v>
       </c>
@@ -4582,10 +4646,10 @@
         <v>43</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>494</v>
@@ -4594,10 +4658,10 @@
         <v>225</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>4</v>
       </c>
@@ -4605,22 +4669,22 @@
         <v>43</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>4</v>
       </c>
@@ -4628,22 +4692,22 @@
         <v>43</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>4</v>
       </c>
@@ -4651,22 +4715,22 @@
         <v>43</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>4</v>
       </c>
@@ -4674,10 +4738,10 @@
         <v>43</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>487</v>
@@ -4686,10 +4750,10 @@
         <v>225</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>4</v>
       </c>
@@ -4697,10 +4761,10 @@
         <v>43</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>76</v>
+        <v>292</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>487</v>
@@ -4709,10 +4773,10 @@
         <v>225</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>4</v>
       </c>
@@ -4720,10 +4784,10 @@
         <v>43</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>487</v>
@@ -4732,10 +4796,10 @@
         <v>225</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>4</v>
       </c>
@@ -4743,10 +4807,10 @@
         <v>43</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>487</v>
@@ -4755,10 +4819,10 @@
         <v>225</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>4</v>
       </c>
@@ -4766,22 +4830,22 @@
         <v>43</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>49</v>
+        <v>527</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>4</v>
       </c>
@@ -4789,10 +4853,10 @@
         <v>43</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>487</v>
@@ -4801,10 +4865,10 @@
         <v>225</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>4</v>
       </c>
@@ -4812,10 +4876,10 @@
         <v>43</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>487</v>
@@ -4824,10 +4888,10 @@
         <v>225</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>4</v>
       </c>
@@ -4835,22 +4899,22 @@
         <v>43</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>527</v>
+        <v>54</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>4</v>
       </c>
@@ -4858,10 +4922,10 @@
         <v>43</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>487</v>
@@ -4870,10 +4934,10 @@
         <v>225</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>4</v>
       </c>
@@ -4881,10 +4945,10 @@
         <v>43</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>487</v>
@@ -4893,10 +4957,10 @@
         <v>225</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>4</v>
       </c>
@@ -4904,10 +4968,10 @@
         <v>43</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>487</v>
@@ -4916,10 +4980,10 @@
         <v>225</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>4</v>
       </c>
@@ -4927,10 +4991,10 @@
         <v>43</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>487</v>
@@ -4939,10 +5003,10 @@
         <v>225</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>4</v>
       </c>
@@ -4950,10 +5014,10 @@
         <v>43</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>487</v>
@@ -4962,10 +5026,10 @@
         <v>225</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>4</v>
       </c>
@@ -4973,10 +5037,10 @@
         <v>43</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>487</v>
@@ -4985,10 +5049,10 @@
         <v>225</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>4</v>
       </c>
@@ -4996,10 +5060,10 @@
         <v>43</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>487</v>
@@ -5008,79 +5072,79 @@
         <v>225</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>487</v>
+        <v>228</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>60</v>
+        <v>555</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>487</v>
+        <v>228</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>487</v>
+        <v>228</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>5</v>
       </c>
@@ -5088,10 +5152,10 @@
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>228</v>
@@ -5100,10 +5164,10 @@
         <v>226</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>5</v>
       </c>
@@ -5111,10 +5175,10 @@
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>556</v>
+        <v>266</v>
+      </c>
+      <c r="D113" s="19" t="s">
+        <v>557</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>228</v>
@@ -5123,10 +5187,10 @@
         <v>226</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>5</v>
       </c>
@@ -5134,22 +5198,22 @@
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>228</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>5</v>
       </c>
@@ -5157,22 +5221,22 @@
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>228</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>5</v>
       </c>
@@ -5180,22 +5244,22 @@
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D116" s="19" t="s">
-        <v>558</v>
+        <v>268</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>228</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>5</v>
       </c>
@@ -5203,10 +5267,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>228</v>
@@ -5215,10 +5279,10 @@
         <v>225</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>5</v>
       </c>
@@ -5226,10 +5290,10 @@
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>228</v>
@@ -5238,10 +5302,10 @@
         <v>225</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>5</v>
       </c>
@@ -5249,10 +5313,10 @@
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>228</v>
@@ -5261,10 +5325,10 @@
         <v>225</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>5</v>
       </c>
@@ -5272,10 +5336,10 @@
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>228</v>
@@ -5284,79 +5348,79 @@
         <v>225</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>228</v>
+        <v>485</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>228</v>
+        <v>485</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>228</v>
+        <v>485</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>6</v>
       </c>
@@ -5364,22 +5428,22 @@
         <v>13</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>485</v>
+        <v>229</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>6</v>
       </c>
@@ -5387,10 +5451,10 @@
         <v>13</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>139</v>
+        <v>254</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>485</v>
@@ -5399,10 +5463,10 @@
         <v>225</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>6</v>
       </c>
@@ -5410,10 +5474,10 @@
         <v>13</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>485</v>
@@ -5422,10 +5486,10 @@
         <v>225</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>6</v>
       </c>
@@ -5433,22 +5497,22 @@
         <v>13</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>229</v>
+        <v>485</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>6</v>
       </c>
@@ -5456,10 +5520,10 @@
         <v>13</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>485</v>
@@ -5468,10 +5532,10 @@
         <v>225</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>6</v>
       </c>
@@ -5479,10 +5543,10 @@
         <v>13</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>485</v>
@@ -5491,10 +5555,10 @@
         <v>225</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>6</v>
       </c>
@@ -5502,22 +5566,22 @@
         <v>13</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>485</v>
+        <v>230</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>6</v>
       </c>
@@ -5525,22 +5589,22 @@
         <v>13</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>485</v>
+        <v>230</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>6</v>
       </c>
@@ -5548,22 +5612,22 @@
         <v>13</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>485</v>
+        <v>230</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>6</v>
       </c>
@@ -5571,10 +5635,10 @@
         <v>13</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>230</v>
@@ -5583,10 +5647,10 @@
         <v>227</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>6</v>
       </c>
@@ -5594,10 +5658,10 @@
         <v>13</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>230</v>
@@ -5606,10 +5670,10 @@
         <v>227</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>6</v>
       </c>
@@ -5617,10 +5681,10 @@
         <v>13</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>146</v>
+        <v>260</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>230</v>
@@ -5629,10 +5693,10 @@
         <v>227</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>6</v>
       </c>
@@ -5640,10 +5704,10 @@
         <v>13</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>230</v>
@@ -5652,10 +5716,10 @@
         <v>227</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>6</v>
       </c>
@@ -5663,10 +5727,10 @@
         <v>13</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>230</v>
@@ -5675,10 +5739,10 @@
         <v>227</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>6</v>
       </c>
@@ -5686,10 +5750,10 @@
         <v>13</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>230</v>
@@ -5698,10 +5762,10 @@
         <v>227</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>6</v>
       </c>
@@ -5709,10 +5773,10 @@
         <v>13</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>230</v>
@@ -5721,10 +5785,10 @@
         <v>227</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>6</v>
       </c>
@@ -5732,10 +5796,10 @@
         <v>13</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>230</v>
@@ -5744,10 +5808,10 @@
         <v>227</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>6</v>
       </c>
@@ -5755,10 +5819,10 @@
         <v>13</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>230</v>
@@ -5767,79 +5831,79 @@
         <v>227</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>230</v>
+        <v>487</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>7</v>
       </c>
@@ -5847,22 +5911,22 @@
         <v>186</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>7</v>
       </c>
@@ -5870,22 +5934,22 @@
         <v>186</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>7</v>
       </c>
@@ -5893,10 +5957,10 @@
         <v>186</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>229</v>
@@ -5905,10 +5969,10 @@
         <v>225</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>7</v>
       </c>
@@ -5916,22 +5980,22 @@
         <v>186</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>485</v>
+        <v>236</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>7</v>
       </c>
@@ -5939,22 +6003,22 @@
         <v>186</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>7</v>
       </c>
@@ -5962,22 +6026,22 @@
         <v>186</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>7</v>
       </c>
@@ -5985,22 +6049,22 @@
         <v>186</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>7</v>
       </c>
@@ -6008,91 +6072,91 @@
         <v>186</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>8</v>
       </c>
@@ -6100,10 +6164,10 @@
         <v>165</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>229</v>
@@ -6112,10 +6176,10 @@
         <v>231</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>8</v>
       </c>
@@ -6123,10 +6187,10 @@
         <v>165</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>188</v>
+        <v>304</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>229</v>
@@ -6135,10 +6199,10 @@
         <v>231</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>8</v>
       </c>
@@ -6146,22 +6210,22 @@
         <v>165</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>8</v>
       </c>
@@ -6169,22 +6233,22 @@
         <v>165</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>8</v>
       </c>
@@ -6192,22 +6256,22 @@
         <v>165</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>304</v>
+        <v>193</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>8</v>
       </c>
@@ -6215,10 +6279,10 @@
         <v>165</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>221</v>
@@ -6227,10 +6291,10 @@
         <v>225</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>8</v>
       </c>
@@ -6238,10 +6302,10 @@
         <v>165</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>221</v>
@@ -6250,10 +6314,10 @@
         <v>225</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>8</v>
       </c>
@@ -6261,10 +6325,10 @@
         <v>165</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>193</v>
+        <v>305</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>221</v>
@@ -6273,10 +6337,10 @@
         <v>225</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>8</v>
       </c>
@@ -6284,10 +6348,10 @@
         <v>165</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>221</v>
@@ -6296,10 +6360,10 @@
         <v>225</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>8</v>
       </c>
@@ -6307,10 +6371,10 @@
         <v>165</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>195</v>
+        <v>307</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>221</v>
@@ -6319,10 +6383,10 @@
         <v>225</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>8</v>
       </c>
@@ -6330,10 +6394,10 @@
         <v>165</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>221</v>
@@ -6342,10 +6406,10 @@
         <v>225</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>8</v>
       </c>
@@ -6353,10 +6417,10 @@
         <v>165</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>221</v>
@@ -6365,10 +6429,10 @@
         <v>225</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>8</v>
       </c>
@@ -6376,10 +6440,10 @@
         <v>165</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>221</v>
@@ -6388,10 +6452,10 @@
         <v>225</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>8</v>
       </c>
@@ -6399,22 +6463,22 @@
         <v>165</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>8</v>
       </c>
@@ -6422,22 +6486,22 @@
         <v>165</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>8</v>
       </c>
@@ -6445,22 +6509,22 @@
         <v>165</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>162</v>
+        <v>478</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G171" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G171" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>8</v>
       </c>
@@ -6468,116 +6532,47 @@
         <v>165</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>163</v>
+        <v>562</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>563</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G172" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G172" s="27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>312</v>
+        <v>174</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>8</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G174" s="5" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>8</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G175" s="27" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>9</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F176" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G176" s="2" t="s">
-        <v>555</v>
+      <c r="G173" s="2" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:G174">
-    <sortCondition ref="A5:A174"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G171">
+    <sortCondition ref="A2:A171"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6585,18 +6580,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="2" max="2" width="191.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="191.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>533</v>
       </c>
@@ -6609,7 +6604,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>536</v>
       </c>
@@ -6622,9 +6617,9 @@
       <c r="H2" s="11"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -6635,9 +6630,9 @@
       <c r="H3" s="11"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -6648,9 +6643,9 @@
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -6661,9 +6656,9 @@
       <c r="H5" s="11"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -6674,15 +6669,15 @@
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
     </row>
   </sheetData>
@@ -6692,24 +6687,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.140625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="196.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.109375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="196.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>553</v>
       </c>
       <c r="B1" s="18"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>530</v>
       </c>
@@ -6717,31 +6712,31 @@
         <v>535</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>521</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>537</v>
       </c>
@@ -6749,15 +6744,15 @@
         <v>552</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>538</v>
       </c>
@@ -6765,7 +6760,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>539</v>
       </c>
@@ -6773,7 +6768,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>313</v>
       </c>
@@ -6781,7 +6776,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>174</v>
       </c>
@@ -6796,861 +6791,861 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:B170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="4" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="4" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" s="4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" s="4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" s="4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" s="4" t="s">
         <v>174</v>
       </c>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cdgonzalez\Desktop\Publicaciones Regionales\Bases Publicadas en 2021\Base 20210707\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2021\Base 20210806\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8724B072-E508-4C7B-B5A0-E2DA9C4CB289}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -2072,14 +2073,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (Mayo de 2021) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (junio de 2021) debido a que no se encuentra disponible.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2574,7 +2575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -6576,7 +6577,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:G174">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G174">
     <sortCondition ref="A5:A174"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6585,7 +6586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -6692,7 +6693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -6796,7 +6797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:B170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
